--- a/자바관련문서/mongodb.xlsx
+++ b/자바관련문서/mongodb.xlsx
@@ -337,7 +337,15 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>C:\Users\jooladen&gt;docker exec -it resources-mongo-1 bash</a:t>
+            <a:t>C:\Users\jooladen&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>docker exec -it resources-mongo-1 bash</a:t>
           </a:r>
         </a:p>
         <a:p>

--- a/자바관련문서/mongodb.xlsx
+++ b/자바관련문서/mongodb.xlsx
@@ -354,7 +354,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>root@06e4e1917d58:/# mongosh -u root -p hk123</a:t>
+            <a:t>root@06e4e1917d58:/# mongosh -u root -p hk123 </a:t>
           </a:r>
         </a:p>
         <a:p>
